--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H2">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I2">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J2">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>196.602977486562</v>
+        <v>47.01311929447466</v>
       </c>
       <c r="R2">
-        <v>1769.426797379058</v>
+        <v>423.118073650272</v>
       </c>
       <c r="S2">
-        <v>0.1198757131003964</v>
+        <v>0.03713314790860505</v>
       </c>
       <c r="T2">
-        <v>0.1198757131003964</v>
+        <v>0.03713314790860505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H3">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I3">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J3">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>121.71925294089</v>
+        <v>27.05084496336445</v>
       </c>
       <c r="R3">
-        <v>1095.47327646801</v>
+        <v>243.45760467028</v>
       </c>
       <c r="S3">
-        <v>0.07421648660094191</v>
+        <v>0.02136601531980054</v>
       </c>
       <c r="T3">
-        <v>0.07421648660094192</v>
+        <v>0.02136601531980054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H4">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I4">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J4">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>35.33619657357</v>
+        <v>11.78249843065244</v>
       </c>
       <c r="R4">
-        <v>318.02576916213</v>
+        <v>106.042485875872</v>
       </c>
       <c r="S4">
-        <v>0.02154571521075778</v>
+        <v>0.0093063651917635</v>
       </c>
       <c r="T4">
-        <v>0.02154571521075778</v>
+        <v>0.0093063651917635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.694761</v>
       </c>
       <c r="I5">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J5">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>298.0243649535459</v>
+        <v>320.6706341509293</v>
       </c>
       <c r="R5">
-        <v>2682.219284581913</v>
+        <v>2886.035707358364</v>
       </c>
       <c r="S5">
-        <v>0.181715881045296</v>
+        <v>0.2532805792631611</v>
       </c>
       <c r="T5">
-        <v>0.181715881045296</v>
+        <v>0.253280579263161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.694761</v>
       </c>
       <c r="I6">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J6">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>184.5104459967206</v>
@@ -818,10 +818,10 @@
         <v>1660.594013970485</v>
       </c>
       <c r="S6">
-        <v>0.1125024736201712</v>
+        <v>0.1457349306895308</v>
       </c>
       <c r="T6">
-        <v>0.1125024736201713</v>
+        <v>0.1457349306895308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.694761</v>
       </c>
       <c r="I7">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J7">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>53.56504605547833</v>
+        <v>80.36695501895154</v>
       </c>
       <c r="R7">
-        <v>482.085414499305</v>
+        <v>723.3025951705639</v>
       </c>
       <c r="S7">
-        <v>0.03266048243646225</v>
+        <v>0.06347755844470571</v>
       </c>
       <c r="T7">
-        <v>0.03266048243646225</v>
+        <v>0.06347755844470569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H8">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I8">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J8">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>417.0999740047129</v>
+        <v>325.6685496758026</v>
       </c>
       <c r="R8">
-        <v>3753.899766042416</v>
+        <v>2931.016947082223</v>
       </c>
       <c r="S8">
-        <v>0.2543204454845518</v>
+        <v>0.2572281653668903</v>
       </c>
       <c r="T8">
-        <v>0.2543204454845519</v>
+        <v>0.2572281653668903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H9">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I9">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J9">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>258.2315786188356</v>
+        <v>187.3861930229178</v>
       </c>
       <c r="R9">
-        <v>2324.08420756952</v>
+        <v>1686.47573720626</v>
       </c>
       <c r="S9">
-        <v>0.1574528271530875</v>
+        <v>0.1480063294240552</v>
       </c>
       <c r="T9">
-        <v>0.1574528271530875</v>
+        <v>0.1480063294240552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H10">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I10">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J10">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>74.96695553997334</v>
+        <v>81.61954009971377</v>
       </c>
       <c r="R10">
-        <v>674.7025998597601</v>
+        <v>734.5758608974239</v>
       </c>
       <c r="S10">
-        <v>0.04570997534833505</v>
+        <v>0.06446690839148794</v>
       </c>
       <c r="T10">
-        <v>0.04570997534833505</v>
+        <v>0.06446690839148793</v>
       </c>
     </row>
   </sheetData>
